--- a/Documentación/Sprints/AnalisisDiseño_Sprint5.xlsx
+++ b/Documentación/Sprints/AnalisisDiseño_Sprint5.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Paula/ICI 2013/VIII Semestre/Taller Ing Software/RedDebate/Documentación/Sprints/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laboratorio\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16620" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Análisis1 5.1" sheetId="7" r:id="rId1"/>
@@ -20,9 +20,6 @@
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -31,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="45">
   <si>
     <t>Cursos alternativos</t>
   </si>
@@ -133,9 +130,6 @@
   </si>
   <si>
     <t>2. El sistema mostrará en cada sección de argumentos la cantidad de personas que están a favor y las que estan en contra</t>
-  </si>
-  <si>
-    <t>SPRINT 5.3</t>
   </si>
   <si>
     <t>Valorar argumento</t>
@@ -175,20 +169,20 @@
     <t>valorar_arg()</t>
   </si>
   <si>
-    <t xml:space="preserve">Capturar el usuario y el argumento del debate seleccionado
-</t>
-  </si>
-  <si>
     <t>(1) se creó la instancia Valoracion</t>
   </si>
   <si>
-    <t>el participante definió postura</t>
-  </si>
-  <si>
     <t>Diagrama de Estados</t>
   </si>
   <si>
     <t>Una vez que el participante ha definido su postura en el debate el sistema además de desplegar la información de este, mostrará la cantidad de personas que están a favor y en contra.</t>
+  </si>
+  <si>
+    <t>el participante definió postura
+se conoce el id del usuario y del argumento</t>
+  </si>
+  <si>
+    <t>registrar la valoracion de un argumento asociado al usuario</t>
   </si>
 </sst>
 </file>
@@ -596,38 +590,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -656,6 +650,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -790,15 +787,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>83820</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>118698</xdr:rowOff>
+      <xdr:rowOff>172038</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>322580</xdr:colOff>
+      <xdr:colOff>406400</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>35560</xdr:rowOff>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -815,8 +812,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6654800" y="3420698"/>
-          <a:ext cx="4437380" cy="1918382"/>
+          <a:off x="5905500" y="3814398"/>
+          <a:ext cx="3942080" cy="1898062"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1137,21 +1134,21 @@
   <dimension ref="B1:H20"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C10" sqref="C10:D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="48.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="48.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:8" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="17" t="s">
         <v>29</v>
       </c>
@@ -1159,32 +1156,32 @@
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="2:8" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="33.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="17"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
     </row>
-    <row r="3" spans="2:8" ht="22" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="28" t="s">
+    <row r="3" spans="2:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="30"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="28"/>
       <c r="F3" s="21" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="32"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D4" s="30"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="s">
         <v>10</v>
       </c>
@@ -1193,7 +1190,7 @@
       </c>
       <c r="D5" s="25"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="s">
         <v>9</v>
       </c>
@@ -1202,18 +1199,18 @@
       </c>
       <c r="D6" s="25"/>
     </row>
-    <row r="7" spans="2:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D7" s="25"/>
       <c r="G7"/>
       <c r="H7"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>7</v>
       </c>
@@ -1222,7 +1219,7 @@
       </c>
       <c r="D8" s="25"/>
     </row>
-    <row r="9" spans="2:8" ht="21" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B9" s="14" t="s">
         <v>6</v>
       </c>
@@ -1232,22 +1229,22 @@
       <c r="D9" s="25"/>
       <c r="F9" s="21"/>
     </row>
-    <row r="10" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="27"/>
-    </row>
-    <row r="11" spans="2:8" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="28" t="s">
+      <c r="C10" s="35"/>
+      <c r="D10" s="36"/>
+    </row>
+    <row r="11" spans="2:8" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="30"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C12" s="27"/>
+      <c r="D12" s="28"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="37" t="s">
         <v>2</v>
       </c>
@@ -1256,7 +1253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="39" t="s">
         <v>26</v>
       </c>
@@ -1265,46 +1262,40 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="41"/>
       <c r="C15" s="24"/>
       <c r="D15" s="22"/>
     </row>
-    <row r="16" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="35"/>
-      <c r="C16" s="36"/>
+    <row r="16" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="31"/>
+      <c r="C16" s="32"/>
       <c r="D16" s="19"/>
     </row>
-    <row r="17" spans="2:4" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
     </row>
-    <row r="18" spans="2:4" ht="22" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="28" t="s">
+    <row r="18" spans="2:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="30"/>
-    </row>
-    <row r="19" spans="2:4" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="27"/>
+      <c r="D18" s="28"/>
+    </row>
+    <row r="19" spans="2:4" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="33"/>
       <c r="C19" s="34"/>
       <c r="D19" s="13"/>
     </row>
-    <row r="20" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="35"/>
-      <c r="C20" s="36"/>
+    <row r="20" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="31"/>
+      <c r="C20" s="32"/>
       <c r="D20" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B19:C19"/>
@@ -1315,6 +1306,12 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1325,19 +1322,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="156" zoomScalePageLayoutView="156" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="156" zoomScalePageLayoutView="156" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.33203125" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="6.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.28515625" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="10.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="17" t="s">
         <v>29</v>
       </c>
@@ -1351,7 +1348,7 @@
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
     </row>
-    <row r="2" spans="2:11" ht="21" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:11" ht="21" x14ac:dyDescent="0.25">
       <c r="B2" s="42" t="s">
         <v>20</v>
       </c>
@@ -1361,198 +1358,198 @@
       </c>
       <c r="F2" s="21"/>
     </row>
-    <row r="3" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="9"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="8"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="6"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="6"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="6"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="6"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="6"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="8"/>
     </row>
-    <row r="12" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="4"/>
     </row>
-    <row r="14" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="9"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="8"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="6"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C18" s="6"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="6"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C21" s="6"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="6"/>
     </row>
-    <row r="23" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="4"/>
     </row>
-    <row r="24" spans="2:5" ht="21" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:5" ht="21" x14ac:dyDescent="0.25">
       <c r="E24" s="21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26"/>
       <c r="C26"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27"/>
       <c r="C27"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28"/>
       <c r="C28"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29"/>
       <c r="C29"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30"/>
       <c r="C30"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31"/>
       <c r="C31"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32"/>
       <c r="C32"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33"/>
       <c r="C33"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34"/>
       <c r="C34"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35"/>
       <c r="C35"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36"/>
       <c r="C36"/>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37"/>
       <c r="C37"/>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38"/>
       <c r="C38"/>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39"/>
       <c r="C39"/>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40"/>
       <c r="C40"/>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41"/>
       <c r="C41"/>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42"/>
       <c r="C42"/>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43"/>
       <c r="C43"/>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44"/>
       <c r="C44"/>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45"/>
       <c r="C45"/>
     </row>
@@ -1569,54 +1566,54 @@
   <dimension ref="B1:H20"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="48.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="48.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:8" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="2:8" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="33.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="17"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
     </row>
-    <row r="3" spans="2:8" ht="22" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="28" t="s">
+    <row r="3" spans="2:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="30"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="28"/>
       <c r="F3" s="21" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="32"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C4" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="30"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="s">
         <v>10</v>
       </c>
@@ -1625,27 +1622,27 @@
       </c>
       <c r="D5" s="25"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" s="25"/>
     </row>
-    <row r="7" spans="2:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" s="25"/>
       <c r="G7"/>
       <c r="H7"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>7</v>
       </c>
@@ -1654,7 +1651,7 @@
       </c>
       <c r="D8" s="25"/>
     </row>
-    <row r="9" spans="2:8" ht="21" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B9" s="14" t="s">
         <v>6</v>
       </c>
@@ -1664,22 +1661,22 @@
       <c r="D9" s="25"/>
       <c r="F9" s="21"/>
     </row>
-    <row r="10" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="27"/>
-    </row>
-    <row r="11" spans="2:8" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="28" t="s">
+      <c r="C10" s="35"/>
+      <c r="D10" s="36"/>
+    </row>
+    <row r="11" spans="2:8" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="30"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C12" s="27"/>
+      <c r="D12" s="28"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="37" t="s">
         <v>2</v>
       </c>
@@ -1688,7 +1685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="39" t="s">
         <v>26</v>
       </c>
@@ -1697,50 +1694,44 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="45" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B15" s="41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" s="24"/>
       <c r="D15" s="23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="35"/>
-      <c r="C16" s="36"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="31"/>
+      <c r="C16" s="32"/>
       <c r="D16" s="19"/>
     </row>
-    <row r="17" spans="2:4" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
     </row>
-    <row r="18" spans="2:4" ht="22" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="28" t="s">
+    <row r="18" spans="2:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="30"/>
-    </row>
-    <row r="19" spans="2:4" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="27"/>
+      <c r="D18" s="28"/>
+    </row>
+    <row r="19" spans="2:4" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="33"/>
       <c r="C19" s="34"/>
       <c r="D19" s="13"/>
     </row>
-    <row r="20" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="35"/>
-      <c r="C20" s="36"/>
+    <row r="20" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="31"/>
+      <c r="C20" s="32"/>
       <c r="D20" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B19:C19"/>
@@ -1751,6 +1742,12 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1761,21 +1758,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K45"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="156" zoomScalePageLayoutView="156" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView topLeftCell="A4" zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="156" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.33203125" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="6.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.28515625" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="10.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="11"/>
@@ -1787,7 +1784,7 @@
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
     </row>
-    <row r="2" spans="2:11" ht="21" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:11" ht="21" x14ac:dyDescent="0.25">
       <c r="B2" s="42" t="s">
         <v>20</v>
       </c>
@@ -1797,24 +1794,24 @@
       </c>
       <c r="F2" s="21"/>
     </row>
-    <row r="3" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="30" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>6</v>
       </c>
@@ -1822,31 +1819,31 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="6"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="6"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="6"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="6"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -1854,135 +1851,135 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" ht="21" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="21" x14ac:dyDescent="0.25">
       <c r="E14" s="21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15"/>
       <c r="C15"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16"/>
       <c r="C16"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17"/>
       <c r="C17"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18"/>
       <c r="C18"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19"/>
       <c r="C19"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20"/>
       <c r="C20"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21"/>
       <c r="C21"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22"/>
       <c r="C22"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23"/>
       <c r="C23"/>
     </row>
-    <row r="24" spans="2:5" ht="21" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:5" ht="21" x14ac:dyDescent="0.25">
       <c r="E24" s="21"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26"/>
       <c r="C26"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27"/>
       <c r="C27"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28"/>
       <c r="C28"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29"/>
       <c r="C29"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30"/>
       <c r="C30"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31"/>
       <c r="C31"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32"/>
       <c r="C32"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33"/>
       <c r="C33"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34"/>
       <c r="C34"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35"/>
       <c r="C35"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36"/>
       <c r="C36"/>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37"/>
       <c r="C37"/>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38"/>
       <c r="C38"/>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39"/>
       <c r="C39"/>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40"/>
       <c r="C40"/>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41"/>
       <c r="C41"/>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42"/>
       <c r="C42"/>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43"/>
       <c r="C43"/>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44"/>
       <c r="C44"/>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45"/>
       <c r="C45"/>
     </row>
@@ -1999,15 +1996,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:2" ht="33.75" x14ac:dyDescent="0.25">
       <c r="B1" s="17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
